--- a/CaseStudy/Classifier case study data/Overall Analysis-11 April 2021.xlsx
+++ b/CaseStudy/Classifier case study data/Overall Analysis-11 April 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Morphy\Classifier Case Study Data\Version - 11 April 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/git/ExploratoryTestJournalPaper/Case Study Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C16C5E-BCC4-4FB2-951A-EFCA92AA3FD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2271FA5F-57C4-474C-9077-4F6F3BFB2262}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25680" yWindow="270" windowWidth="23895" windowHeight="14250" xr2:uid="{5D48C7EC-A1E3-9345-ACBD-2CC3C34F58CD}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" xr2:uid="{5D48C7EC-A1E3-9345-ACBD-2CC3C34F58CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -667,7 +667,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1023,7 +1023,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3195,7 +3195,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3551,7 +3551,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3587,7 +3587,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> of The Random Target Strategy</a:t>
+              <a:t> of Random Target</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -4143,7 +4143,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4264,7 +4264,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4856,7 +4856,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4977,7 +4977,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5569,7 +5569,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5690,7 +5690,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7814,7 +7814,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8401,7 +8401,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8522,7 +8522,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9114,7 +9114,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9235,7 +9235,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9827,7 +9827,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15482,13 +15482,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
+      <xdr:colOff>446922</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
+      <xdr:colOff>65922</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -15518,15 +15518,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
+      <xdr:colOff>62387</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>63107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
+      <xdr:colOff>506887</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>164707</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15674,8 +15674,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>546231</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>184668</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16042,22 +16042,22 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="1" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="6" width="8.125" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="8.375" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="5" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>13</v>
       </c>
@@ -16077,7 +16077,7 @@
       <c r="I1" s="37"/>
       <c r="J1" s="38"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1">
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
       <c r="B2" s="47"/>
       <c r="C2" s="15" t="s">
@@ -16105,7 +16105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>0.23951896977350307</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -16167,7 +16167,7 @@
         <v>5.9010965894766086E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1">
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="6" t="s">
         <v>2</v>
@@ -16197,7 +16197,7 @@
         <v>0.21498838337734455</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>10</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>0.71811301868693467</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="43"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -16259,7 +16259,7 @@
         <v>0.58910780039820076</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" thickBot="1">
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="6" t="s">
         <v>2</v>
@@ -16289,7 +16289,7 @@
         <v>0.64384826835740139</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
         <v>11</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>0.87150420022771502</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>1</v>
@@ -16351,7 +16351,7 @@
         <v>0.63436385859256395</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="6" t="s">
         <v>2</v>
@@ -16381,7 +16381,7 @@
         <v>0.47491122218641396</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E12" s="28">
         <f>AVERAGE(E3:E11)</f>
         <v>26.318407008661023</v>
@@ -16391,13 +16391,13 @@
         <v>34.47794069355048</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" thickBot="1"/>
-    <row r="15" spans="1:10">
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="40"/>
       <c r="C15" s="36" t="s">
         <v>7</v>
@@ -16412,7 +16412,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" thickBot="1">
+    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41"/>
       <c r="C16" s="15" t="s">
         <v>15</v>
@@ -16439,7 +16439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>0.17117277301520453</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>0.65035636248084561</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="16.5" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
@@ -16576,13 +16576,13 @@
   </sheetPr>
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="A11" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>10</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>25.955027162750518</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="35" t="s">
         <v>32</v>
@@ -16748,7 +16748,7 @@
         <v>9.9259130530430184</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="35" t="s">
         <v>33</v>
@@ -16802,7 +16802,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>11</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>39.555809657467059</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="35" t="s">
         <v>32</v>
@@ -16912,7 +16912,7 @@
         <v>47.305196964931781</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="35" t="s">
         <v>33</v>
@@ -16966,7 +16966,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>9</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>61.890394620597519</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="35" t="s">
         <v>32</v>
@@ -17076,7 +17076,7 @@
         <v>23.632935781727348</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="35" t="s">
         <v>33</v>
@@ -17137,7 +17137,7 @@
     <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -17150,16 +17150,16 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
@@ -17215,7 +17215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>10</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>18.741462301587301</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="35" t="s">
         <v>32</v>
@@ -17325,7 +17325,7 @@
         <v>11.72199007936508</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="35" t="s">
         <v>33</v>
@@ -17379,7 +17379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>11</v>
       </c>
@@ -17435,7 +17435,7 @@
         <v>24.984404761904766</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="35" t="s">
         <v>32</v>
@@ -17489,7 +17489,7 @@
         <v>19.267001984126985</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="35" t="s">
         <v>33</v>
@@ -17543,7 +17543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>9</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>8.9601549422799405</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="35" t="s">
         <v>32</v>
@@ -17653,7 +17653,7 @@
         <v>4.637258838383838</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="35" t="s">
         <v>33</v>
@@ -17714,7 +17714,7 @@
     <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>